--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2552415.95907669</v>
+        <v>2656595.593527761</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>81.40810638219524</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>111.7032299015032</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>228.9930452345534</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.4775665051593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>266.8472762396349</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>335.1891847367772</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1105,10 +1107,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>146.2274499449125</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>47.50249556500243</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>314.9029209504225</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.7306598811428</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1339,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>180.7484510717393</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>9.576054359285106</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488193</v>
+        <v>182.6625718220546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>77.39507264402584</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>86.26216629270451</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.4093105446501</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>45.66054613217695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>143.6328115793019</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>125.4250331806694</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>180.9172429496418</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>102.3739644559489</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>181.7798872146016</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>141.888808295738</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>160.5414768533589</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>16.93966244919737</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>114.6638016462594</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.49215756129713</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.6849016609953</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>219.4517041866526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>166.5451136812777</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2016.438433460088</v>
+        <v>1642.972675199007</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>915.7444596518451</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>529.9562070536008</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.03827352421</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>738.7485871070718</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368016</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>510.7590362090544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.36381994936</v>
+        <v>1870.656190741329</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008948</v>
+        <v>1501.693673800917</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.401303008948</v>
+        <v>1501.693673800917</v>
       </c>
       <c r="E5" t="n">
-        <v>751.6130504107036</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>744.6675496615002</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989293</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013481</v>
+        <v>2257.25603080545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1498.073711778996</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1498.073711778996</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1243.389223573109</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1243.389223573109</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>1015.399672675091</v>
+        <v>832.2419174096015</v>
       </c>
       <c r="Y7" t="n">
-        <v>794.6070935315613</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.266366609372</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
         <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1654.889897844264</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.12328241379</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1433.12328241379</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1178.438794207903</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1178.438794207903</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.438794207903</v>
+        <v>994.5867835477208</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.646215064373</v>
+        <v>773.7942044041906</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5126,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3406.350378974037</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>4033.948342528643</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>633.992644467967</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>486.0795508855739</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1896033876635</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9935041025435</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557013</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L18" t="n">
-        <v>2565.513299557013</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M18" t="n">
-        <v>3162.891787183565</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>3790.489750738172</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
-        <v>4342.399480977459</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023712</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398595</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615668</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334541</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.78353867329</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667834</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694719</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740627</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385793</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.35591459056</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118215</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289435</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L21" t="n">
-        <v>3212.252935505194</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="M21" t="n">
-        <v>3809.631423131746</v>
+        <v>2978.613657539997</v>
       </c>
       <c r="N21" t="n">
-        <v>4437.229386686353</v>
+        <v>3606.211621094604</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023712</v>
+        <v>4158.121351333891</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023712</v>
+        <v>4581.744500828959</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301208</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022982</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566167</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334424</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.14661340069</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635736</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277359</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277359</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277359</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4478.703800591094</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4259.102335614035</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>3970.027108958232</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3715.342620752346</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3425.925450715385</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>3425.925450715385</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>3205.132871571855</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,19 +6077,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>2389.334518447046</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L33" t="n">
-        <v>2884.660124662805</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M33" t="n">
-        <v>3482.038612289356</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3168.568054801518</v>
+        <v>3045.561952449533</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868833</v>
+        <v>2876.625769521626</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456497</v>
+        <v>2726.50913010929</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874104</v>
+        <v>2578.596036526897</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376194</v>
+        <v>2578.596036526897</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673938</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018136</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812249</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>3571.009098775288</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>3571.009098775288</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y34" t="n">
-        <v>3350.216519631758</v>
+        <v>3227.210417279773</v>
       </c>
     </row>
     <row r="35">
@@ -6923,58 +6925,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2359.115042518991</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2359.115042518991</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>2854.44064873475</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.44064873475</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>3122.22696873374</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>3122.22696873374</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>2972.110329321405</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>2824.197235739011</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>2677.307288241101</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2323.864695427313</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>2104.263230450254</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>2104.263230450254</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.578742244367</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.161572207406</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>620.8230468926974</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>802.4715117229372</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>2716.927329289435</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>3314.305816915986</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924063</v>
+        <v>34.74287850523362</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>62.89964020219801</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>199.9223080965396</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.42266963728721</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119.8635921600919</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>37.39347442234265</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>21.00892946589974</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.2672314396024</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>149.7636788678792</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>43.92976817443557</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.726664722474311</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.705344245268947</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>148.5844758430715</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.86033664600944</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5341284403475</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.8997516910995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45.65245098079514</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>6.257951202384561</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>50.86033664601052</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790968.672741291</v>
+        <v>790968.6727412911</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551197</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26448,10 +26450,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870809.2813857165</v>
+        <v>-870809.2813857162</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418762</v>
+        <v>457935.4643418761</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.4643418761</v>
+        <v>457935.464341876</v>
       </c>
       <c r="E6" t="n">
-        <v>207405.3119039366</v>
+        <v>207405.3119039367</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.7737112921</v>
+        <v>532817.773711292</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.7737112924</v>
+        <v>532817.773711292</v>
       </c>
       <c r="H6" t="n">
         <v>532817.7737112922</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.7737112918</v>
       </c>
       <c r="J6" t="n">
-        <v>315286.5713140147</v>
+        <v>315286.5713140145</v>
       </c>
       <c r="K6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.7737112921</v>
       </c>
       <c r="L6" t="n">
-        <v>532817.7737112924</v>
+        <v>532817.7737112922</v>
       </c>
       <c r="M6" t="n">
-        <v>447762.7457757803</v>
+        <v>447762.7457757805</v>
       </c>
       <c r="N6" t="n">
-        <v>532817.7737112924</v>
+        <v>532817.7737112918</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.7737112921</v>
       </c>
       <c r="P6" t="n">
         <v>532817.7737112921</v>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>283.8647853888123</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>295.1728158402082</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>57.52995310203761</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.10708684693549</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>115.0830938326269</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>75.73254091667627</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>73.32149933125672</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>178.2071598240347</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>12.84933751971238</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0004407973263</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.020574259702641</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>216.133601029752</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>5.844418180573881e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>231.5286848890159</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>250.309772107515</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932924</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>388.5140139297707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.47033547631</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>297.1808238847163</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927443</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>255.6522884173725</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M39" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6709493241799</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>92.97430510914178</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>116.3353646931848</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884798</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>245.9177694853263</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.1286233929767</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>159.3393849103574</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627482999</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>128.8146617507058</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>597.3292372408466</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2656595.593527761</v>
+        <v>2652582.983513768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>111.7032299015032</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>19.68942351146622</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.33835225137435</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>228.9930452345534</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>337.3754951935078</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>266.8472762396349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>51.06561173381971</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>47.50249556500243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>314.9029209504225</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>110.7115619691727</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>9.576054359285106</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>182.6625718220546</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>86.26216629270451</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060384</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>143.6328115793019</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>125.4250331806694</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.551214499872</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>102.3739644559489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>141.888808295738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>115.7063133373731</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.93966244919737</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.6638016462594</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>33.58398714687333</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>94.64226186542875</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>166.5451136812777</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199007</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258596</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>915.7444596518451</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>529.9562070536008</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.124661698547</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263129</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.7590362090544</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484844</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610487</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046005</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>738.7485871070718</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X4" t="n">
-        <v>510.7590362090544</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.7590362090544</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.656190741329</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.693673800917</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1501.693673800917</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.25603080545</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.25603080545</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.5934525793617</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>118.0935424259407</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>832.2419174096015</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>832.2419174096015</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.723170258544</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.723170258544</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>476.3717100018342</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>326.2550705894985</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>178.3419770071054</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>994.5867835477208</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>773.7942044041906</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2079.600600930059</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1790.525374274257</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.841029837709</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.373282952344</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.688794746457</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679487</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5737,52 +5737,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913445</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>2978.613657539997</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3606.211621094604</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4158.121351333891</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4581.744500828959</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3023.484406741615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4478.703800591094</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4259.102335614035</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3970.027108958232</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3715.342620752346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3425.925450715385</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3425.925450715385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3205.132871571855</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6013,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6557,13 +6557,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>991.7436897307826</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>822.8075068028758</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>672.69086739054</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>524.7777738081469</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>377.8878263102365</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>210.6917270251164</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3045.561952449533</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2876.625769521626</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2726.50913010929</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2578.596036526897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2578.596036526897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3227.210417279773</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3122.22696873374</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>3122.22696873374</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2972.110329321405</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2824.197235739011</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2677.307288241101</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>34.74287850523362</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9223080965396</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.003342051665</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.39347442234265</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>21.00892946589974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>105.8542358274163</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.726664722474311</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>24.58839950885074</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>148.5844758430715</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>50.86033664600944</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>115.031485871339</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.65245098079514</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.86033664601052</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790968.6727412911</v>
+        <v>790968.672741291</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870809.2813857162</v>
+        <v>-870809.2813857164</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418761</v>
+        <v>457935.4643418764</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.464341876</v>
+        <v>457935.4643418759</v>
       </c>
       <c r="E6" t="n">
-        <v>207405.3119039367</v>
+        <v>207057.9326495799</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.773711292</v>
+        <v>532470.3944569351</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.773711292</v>
+        <v>532470.3944569353</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112922</v>
+        <v>532470.3944569352</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112918</v>
+        <v>532470.3944569353</v>
       </c>
       <c r="J6" t="n">
-        <v>315286.5713140145</v>
+        <v>314939.1920596578</v>
       </c>
       <c r="K6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569352</v>
       </c>
       <c r="L6" t="n">
-        <v>532817.7737112922</v>
+        <v>532470.394456935</v>
       </c>
       <c r="M6" t="n">
-        <v>447762.7457757805</v>
+        <v>447415.3665214233</v>
       </c>
       <c r="N6" t="n">
-        <v>532817.7737112918</v>
+        <v>532470.3944569351</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569352</v>
       </c>
       <c r="P6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569351</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>295.1728158402082</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>366.5485151445874</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>83.01406815846374</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>57.52995310203761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>45.35834646997279</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0830938326269</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>93.68940318050107</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>178.2071598240347</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>12.84933751971238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.70948605375855</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>216.133601029752</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927443</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627482999</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652582.983513768</v>
+        <v>2654343.513816553</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.68942351146622</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.33835225137435</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.3754951935078</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>265.2378569961669</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>51.06561173381971</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>58.9280504799215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>274.7944255145766</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7115619691727</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.043187116399006</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673023</v>
+        <v>60.32297266393831</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571659</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.551214499872</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7063133373731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>33.58398714687333</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.761086342349</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>838.8249034144422</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>688.7082640021065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>540.7951704197134</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>393.905222921803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>226.202386296522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>79.98519951437973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214136</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W4" t="n">
-        <v>1638.191681214136</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X4" t="n">
-        <v>1410.202130316119</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.409551172589</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>2244.121949002409</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189672</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738575</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336148</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512217</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512217</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0935424259407</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040972</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0353997452355</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3078929297411</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>476.3717100018342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>326.2550705894985</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>178.3419770071054</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5007,7 +5007,7 @@
         <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,70 +6360,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2334.285089135946</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2045.209862480144</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
         <v>1501.108204237296</v>
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>991.7436897307826</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>822.8075068028758</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>672.69086739054</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>524.7777738081469</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>377.8878263102365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>210.6917270251164</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704552</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1173.392154561022</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,10 +7502,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>666.6476097656493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,10 +7739,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.889702261794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194188</v>
+        <v>225.8615017253058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405073</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>105.8542358274163</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.58839950885074</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.031485871339</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="F4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870809.2813857164</v>
+        <v>-870809.2813857165</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418764</v>
+        <v>457935.4643418761</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.4643418759</v>
+        <v>457935.464341876</v>
       </c>
       <c r="E6" t="n">
-        <v>207057.9326495799</v>
+        <v>207370.5739785008</v>
       </c>
       <c r="F6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="G6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="H6" t="n">
-        <v>532470.3944569352</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="I6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="J6" t="n">
-        <v>314939.1920596578</v>
+        <v>315251.8333885787</v>
       </c>
       <c r="K6" t="n">
-        <v>532470.3944569352</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="L6" t="n">
-        <v>532470.394456935</v>
+        <v>532783.0357858563</v>
       </c>
       <c r="M6" t="n">
-        <v>447415.3665214233</v>
+        <v>447728.0078503443</v>
       </c>
       <c r="N6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="O6" t="n">
-        <v>532470.3944569352</v>
+        <v>532783.0357858565</v>
       </c>
       <c r="P6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858565</v>
       </c>
     </row>
   </sheetData>
@@ -26792,25 +26792,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.5485151445874</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>83.01406815846374</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.35834646997279</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>100.0350347748407</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.68940318050107</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>74.44654320283644</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>34.70948605375855</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.5414662356958</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
